--- a/other_data/manual_growth_curves.xlsx
+++ b/other_data/manual_growth_curves.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeuerle/Organisation/Masterarbeit/Nextcloud/master_thesis/labwork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeuerle/Organisation/Masterarbeit/C_striatum_wetlab/other_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BCB93-B538-744E-B8D1-FEC3B0ECC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CADC6E-EAEC-054D-97EC-BA0D5BB6198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="20140" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrations" sheetId="1" r:id="rId1"/>
     <sheet name="Growth_210721" sheetId="2" r:id="rId2"/>
     <sheet name="Growth_210722" sheetId="3" r:id="rId3"/>
+    <sheet name="Growth_221116" sheetId="4" r:id="rId4"/>
+    <sheet name="Growth_221117" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>time (min)</t>
   </si>
@@ -196,13 +198,64 @@
   </si>
   <si>
     <t>Vit (muL)</t>
+  </si>
+  <si>
+    <t>14-1</t>
+  </si>
+  <si>
+    <t>15-1</t>
+  </si>
+  <si>
+    <t>16-1</t>
+  </si>
+  <si>
+    <t>17-1</t>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>15-2</t>
+  </si>
+  <si>
+    <t>16-2</t>
+  </si>
+  <si>
+    <t>17-2</t>
+  </si>
+  <si>
+    <t>14-c</t>
+  </si>
+  <si>
+    <t>15-c</t>
+  </si>
+  <si>
+    <t>16-c</t>
+  </si>
+  <si>
+    <t>17-c</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>15-3</t>
+  </si>
+  <si>
+    <t>16-3</t>
+  </si>
+  <si>
+    <t>17-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +268,29 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -338,15 +414,8 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -380,9 +449,20 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -398,6 +478,3450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>All strains in TSB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9420740848029273E-2"/>
+          <c:y val="0.14420511803133335"/>
+          <c:w val="0.9351548836380561"/>
+          <c:h val="0.78619030363638942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14-c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$G$11:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15-c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$I$11:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221116!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17-c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221116!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221116!$J$11:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7D1C-D44A-A320-3B3FA740F479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2006087359"/>
+        <c:axId val="1999761375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2006087359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999761375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1999761375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006087359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22785022199327887"/>
+          <c:y val="0.95937622024497782"/>
+          <c:w val="0.54260918472147501"/>
+          <c:h val="4.0623775686575762E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>All strains in TSB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221117!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221117!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221117!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.1333333333333327E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14933333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D116-7F43-9255-2C4DC241D587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221117!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221117!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221117!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.533333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.533333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D116-7F43-9255-2C4DC241D587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221117!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221117!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221117!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.7666666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19533333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D116-7F43-9255-2C4DC241D587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Growth_221117!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Growth_221117!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Growth_221117!$Q$2:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.2000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D116-7F43-9255-2C4DC241D587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2000655151"/>
+        <c:axId val="1998680943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2000655151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998680943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1998680943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000655151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305C402B-362B-4D76-D7B3-C29EE531A8BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6128FE1-6402-82D9-0C80-81D18DB37CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,31 +4218,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="12.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -727,10 +4250,10 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -742,17 +4265,12 @@
       <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4">
@@ -775,14 +4293,9 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4">
@@ -809,14 +4322,8 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -829,14 +4336,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="4"/>
@@ -875,20 +4377,18 @@
         <f>($Q$9*$R$8)/$K$3</f>
         <v>505.05050505050508</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="4"/>
@@ -927,20 +4427,18 @@
         <f>R8-M5-M7-M8</f>
         <v>18494.949494949495</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <v>1000</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4"/>
@@ -973,18 +4471,16 @@
         <f>($Q$7*$R$8)/$R$6</f>
         <v>800</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="4">
         <v>0.01</v>
       </c>
-      <c r="R7" s="16"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="4"/>
@@ -1019,77 +4515,43 @@
         <f>($Q$10*$R$8)/$Q$6</f>
         <v>200</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="Q8" s="3">
         <v>20</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="14">
         <f>Q8/0.001</f>
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="Q9" s="4">
         <v>0.1</v>
       </c>
-      <c r="R9" s="16"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="4">
         <v>0.01</v>
       </c>
-      <c r="R10" s="16"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1098,8 +4560,7 @@
       <c r="G11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1111,19 +4572,16 @@
       <c r="L11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="16">
         <v>1</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4">
@@ -1136,7 +4594,6 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="8"/>
       <c r="I12" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -1144,14 +4601,9 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="4">
@@ -1166,7 +4618,6 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="8"/>
       <c r="I13" s="4">
         <f>I12*10</f>
         <v>0.48</v>
@@ -1175,34 +4626,22 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="8"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="4"/>
@@ -1220,7 +4659,6 @@
         <f>($Q$9*$R$8)/$E$13</f>
         <v>2941.1764705882351</v>
       </c>
-      <c r="H15" s="8"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4">
         <f>($Q$9*$R$8)/$I$13</f>
@@ -1235,14 +4673,9 @@
         <v>4166.666666666667</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="4"/>
@@ -1275,14 +4708,9 @@
         <v>15013.333333333332</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="4"/>
@@ -1299,7 +4727,6 @@
         <f>($Q$7*$R$8)/$R$6</f>
         <v>800</v>
       </c>
-      <c r="H17" s="8"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4">
         <v>0</v>
@@ -1312,14 +4739,9 @@
         <v>800</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="4"/>
@@ -1334,7 +4756,6 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="8"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
         <v>0</v>
@@ -1348,11 +4769,6 @@
         <v>20</v>
       </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1366,14 +4782,14 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1874,12 +5290,14 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2348,4 +5766,948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD02698-E126-744C-8D29-9CCEB1548A79}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>16</v>
+      </c>
+      <c r="E1">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.121</v>
+      </c>
+      <c r="D3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.191</v>
+      </c>
+      <c r="C4">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>0.254</v>
+      </c>
+      <c r="C5">
+        <v>0.152</v>
+      </c>
+      <c r="D5">
+        <v>0.42</v>
+      </c>
+      <c r="E5">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.249</v>
+      </c>
+      <c r="D7">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.768</v>
+      </c>
+      <c r="E8">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D9">
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="E9">
+        <v>1.208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.53</v>
+      </c>
+      <c r="C10">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D10">
+        <v>3.952</v>
+      </c>
+      <c r="E10">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11">
+        <v>1.4</v>
+      </c>
+      <c r="D11">
+        <v>6.38</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2.6</v>
+      </c>
+      <c r="H11">
+        <v>1.6</v>
+      </c>
+      <c r="I11">
+        <v>6.54</v>
+      </c>
+      <c r="J11">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3.43</v>
+      </c>
+      <c r="C12">
+        <v>2.15</v>
+      </c>
+      <c r="D12">
+        <v>8.52</v>
+      </c>
+      <c r="E12">
+        <v>3.79</v>
+      </c>
+      <c r="G12">
+        <v>3.62</v>
+      </c>
+      <c r="H12">
+        <v>2.37</v>
+      </c>
+      <c r="I12">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J12">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <v>3.7</v>
+      </c>
+      <c r="C13">
+        <v>2.57</v>
+      </c>
+      <c r="D13">
+        <v>10.71</v>
+      </c>
+      <c r="E13">
+        <v>4.34</v>
+      </c>
+      <c r="G13">
+        <v>3.9</v>
+      </c>
+      <c r="H13">
+        <v>2.81</v>
+      </c>
+      <c r="I13">
+        <v>9.52</v>
+      </c>
+      <c r="J13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C14">
+        <v>3.12</v>
+      </c>
+      <c r="D14">
+        <v>11.28</v>
+      </c>
+      <c r="E14">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="B15">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C15">
+        <v>3.7</v>
+      </c>
+      <c r="D15">
+        <v>12.15</v>
+      </c>
+      <c r="E15">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4.95</v>
+      </c>
+      <c r="C16">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D16">
+        <v>12.17</v>
+      </c>
+      <c r="E16">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="B17">
+        <v>6.43</v>
+      </c>
+      <c r="C17">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D17">
+        <v>12.08</v>
+      </c>
+      <c r="E17">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE52A5B3-F757-874E-94D8-8F7891FCC01E}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="24">
+        <v>14</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="24">
+        <v>15</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="24">
+        <v>16</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C2" s="19">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D2" s="19">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E2" s="19">
+        <f>SUM(B2:D2)/3</f>
+        <v>8.1333333333333327E-2</v>
+      </c>
+      <c r="F2" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="H2" s="21">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I2" s="19">
+        <f t="shared" ref="I2:I17" si="0">SUM(F2:H2)/3</f>
+        <v>8.533333333333333E-2</v>
+      </c>
+      <c r="J2" s="21">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="L2" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M2" s="19">
+        <f>SUM(J2:L2)/3</f>
+        <v>8.7666666666666671E-2</v>
+      </c>
+      <c r="N2" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O2" s="21">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P2" s="21">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>SUM(N2:P2)/3</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.108</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E17" si="1">SUM(B3:D3)/3</f>
+        <v>0.104</v>
+      </c>
+      <c r="F3" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="0"/>
+        <v>8.533333333333333E-2</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0.128</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0.126</v>
+      </c>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M17" si="2">SUM(J3:L3)/3</f>
+        <v>0.124</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0.104</v>
+      </c>
+      <c r="O3" s="21">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0.112</v>
+      </c>
+      <c r="Q3" s="19">
+        <f t="shared" ref="Q3:Q17" si="3">SUM(N3:P3)/3</f>
+        <v>0.10133333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14933333333333332</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.124</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="19">
+        <f t="shared" si="2"/>
+        <v>0.19533333333333336</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0.112</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0.128</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11333333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.14333333333333334</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" si="2"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/other_data/manual_growth_curves.xlsx
+++ b/other_data/manual_growth_curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeuerle/Organisation/Masterarbeit/C_striatum_wetlab/other_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CADC6E-EAEC-054D-97EC-BA0D5BB6198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287FE57-87BD-0C4F-83C7-981D931B1D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,40 +1990,40 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.47333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.74333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5433333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.0233333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.6066666666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.2399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.541666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,40 +2149,40 @@
                   <c:v>0.14333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.17666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.24666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5033333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.80666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.4400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.5466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.9233333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.3066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.4616666666666664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.206666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.5066666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,40 +2308,40 @@
                   <c:v>0.32666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.4866666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.6199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.9866666666666672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.7633333333333328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.4066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9.5583333333333318</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>11.433333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>11.450000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,40 +2467,40 @@
                   <c:v>0.18333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.24333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.29333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.51333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.2233333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.0666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.6199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.0333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.3133333333333339</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.9733333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.4366666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6132,7 +6132,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6422,288 +6422,695 @@
       <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.37</v>
+      </c>
       <c r="E6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.16</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17666666666666667</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.54</v>
       </c>
       <c r="M6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0.24</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.24333333333333332</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2.5</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="19">
+        <v>0.47</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.49</v>
+      </c>
       <c r="E7" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.47333333333333333</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.25</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.89</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.88</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="21">
+        <v>0.33</v>
       </c>
       <c r="Q7" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29333333333333339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.75</v>
+      </c>
       <c r="E8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.74333333333333329</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.35</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1.57</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1.46</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1.56</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.53</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0.62</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.51333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>3.5</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1.02</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.01</v>
+      </c>
       <c r="E9" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.54</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5033333333333333</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2.71</v>
+      </c>
+      <c r="K9" s="21">
+        <v>2.35</v>
+      </c>
+      <c r="L9" s="21">
+        <v>2.4</v>
       </c>
       <c r="M9" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4866666666666668</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="P9" s="21">
+        <v>0.87</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="19">
+        <v>1.59</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.55</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1.49</v>
+      </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5433333333333332</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0.81</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80666666666666664</v>
+      </c>
+      <c r="J10" s="21">
+        <v>3.82</v>
+      </c>
+      <c r="K10" s="21">
+        <v>3.32</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3.72</v>
       </c>
       <c r="M10" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6199999999999997</v>
+      </c>
+      <c r="N10" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="O10" s="21">
+        <v>1.18</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1.32</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2233333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>4.5</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="19">
+        <v>2.02</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.04</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0233333333333334</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1.99</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="J11" s="21">
+        <v>5.36</v>
+      </c>
+      <c r="K11" s="21">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="L11" s="21">
+        <v>4.91</v>
       </c>
       <c r="M11" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9866666666666672</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="O11" s="21">
+        <v>1.64</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1.71</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>5</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="19">
+        <v>2.61</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="E12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6066666666666669</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1.57</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1.49</v>
+      </c>
+      <c r="H12" s="21">
+        <v>1.58</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5466666666666669</v>
+      </c>
+      <c r="J12" s="21">
+        <v>7.3</v>
+      </c>
+      <c r="K12" s="21">
+        <v>6.27</v>
+      </c>
+      <c r="L12" s="21">
+        <v>6.72</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.7633333333333328</v>
+      </c>
+      <c r="N12" s="21">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O12" s="21">
+        <v>2.04</v>
+      </c>
+      <c r="P12" s="21">
+        <v>2.15</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>5.5</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="19">
+        <v>3.26</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3.25</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3.21</v>
+      </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1.98</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1.85</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1.94</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9233333333333331</v>
+      </c>
+      <c r="J13" s="21">
+        <v>8.74</v>
+      </c>
+      <c r="K13" s="21">
+        <v>7.86</v>
+      </c>
+      <c r="L13" s="21">
+        <v>8.6199999999999992</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.4066666666666663</v>
+      </c>
+      <c r="N13" s="21">
+        <v>2.62</v>
+      </c>
+      <c r="O13" s="21">
+        <v>2.56</v>
+      </c>
+      <c r="P13" s="21">
+        <v>2.68</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.6199999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="19">
+        <v>3.78</v>
+      </c>
+      <c r="C14" s="19">
+        <v>3.65</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3.85</v>
+      </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.76</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2.27</v>
+      </c>
+      <c r="G14" s="21">
+        <v>2.31</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2.34</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3066666666666666</v>
+      </c>
+      <c r="J14" s="21">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="K14" s="21">
+        <v>8.83</v>
+      </c>
+      <c r="L14" s="21">
+        <v>9.68</v>
       </c>
       <c r="M14" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.49</v>
+      </c>
+      <c r="N14" s="21">
+        <v>3.06</v>
+      </c>
+      <c r="O14" s="21">
+        <v>3.02</v>
+      </c>
+      <c r="P14" s="21">
+        <v>3.02</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>6.5</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="19">
+        <f>9.36/2</f>
+        <v>4.68</v>
+      </c>
+      <c r="C15" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D15" s="19">
+        <f>8.89/2</f>
+        <v>4.4450000000000003</v>
+      </c>
       <c r="E15" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.541666666666667</v>
+      </c>
+      <c r="F15">
+        <f>4.97/2</f>
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="G15">
+        <f>4.89/2</f>
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="H15">
+        <f>4.91/2</f>
+        <v>2.4550000000000001</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4616666666666664</v>
+      </c>
+      <c r="J15">
+        <f>19.85/2</f>
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="K15">
+        <f>18.37/2</f>
+        <v>9.1850000000000005</v>
+      </c>
+      <c r="L15">
+        <f>19.13/2</f>
+        <v>9.5649999999999995</v>
       </c>
       <c r="M15" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.5583333333333318</v>
+      </c>
+      <c r="N15">
+        <f>6.61/2</f>
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="O15">
+        <f>6.65/2</f>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="P15">
+        <f>6.62/2</f>
+        <v>3.31</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.3133333333333339</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>7</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="19">
+        <v>5.57</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5.86</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5.64</v>
+      </c>
       <c r="E16" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.69</v>
+      </c>
+      <c r="F16" s="21">
+        <v>3.19</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="H16" s="21">
+        <v>3.23</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.206666666666667</v>
+      </c>
+      <c r="J16" s="21">
+        <v>11.99</v>
+      </c>
+      <c r="K16" s="21">
+        <v>10.84</v>
+      </c>
+      <c r="L16" s="21">
+        <v>11.47</v>
       </c>
       <c r="M16" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.433333333333332</v>
+      </c>
+      <c r="N16" s="21">
+        <v>3.92</v>
+      </c>
+      <c r="O16" s="21">
+        <v>3.96</v>
+      </c>
+      <c r="P16" s="21">
+        <v>4.04</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.9733333333333332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>7.5</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="19">
+        <v>6.36</v>
+      </c>
+      <c r="C17" s="19">
+        <v>6.37</v>
+      </c>
+      <c r="D17" s="19">
+        <v>6.11</v>
+      </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.28</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3.55</v>
+      </c>
+      <c r="G17" s="21">
+        <v>3.48</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3.49</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5066666666666664</v>
+      </c>
+      <c r="J17" s="21">
+        <v>12.19</v>
+      </c>
+      <c r="K17" s="21">
+        <v>10.67</v>
+      </c>
+      <c r="L17" s="21">
+        <v>11.49</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.450000000000001</v>
+      </c>
+      <c r="N17" s="21">
+        <v>4.43</v>
+      </c>
+      <c r="O17" s="21">
+        <v>4.32</v>
+      </c>
+      <c r="P17" s="21">
+        <v>4.5599999999999996</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.4366666666666665</v>
       </c>
     </row>
   </sheetData>
